--- a/va_facility_data_2025-02-20/Hillsboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hillsboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hillsboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hillsboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf4fcafd1fd06450181fb5d50b8b1bed6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9cbca7b11c114e98ba473bb0b58d6925"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5e81938d52cd4b52980e2b4dfe848781"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf6b3ec84bfac43a28da233b4debf5a79"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R82122c4292be44d4ae464082254e0406"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0b976e2d7a6940d68dcd09dfadce6d4d"/>
   </x:sheets>
 </x:workbook>
 </file>
